--- a/339-flux-4---préciser-la-signification-métier-de-la-date-de-statut/ig/CodeSystem-input-task-sdo-codesystem.xlsx
+++ b/339-flux-4---préciser-la-signification-métier-de-la-date-de-statut/ig/CodeSystem-input-task-sdo-codesystem.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-16T14:46:48+00:00</t>
+    <t>2025-10-06T13:06:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -165,7 +165,7 @@
     <t>dateStatutESMS</t>
   </si>
   <si>
-    <t>Permet de définir la date d'entrée dans le statut</t>
+    <t>Il s'agit de la date réelle d'entrée ou de sortie de l'établissement</t>
   </si>
   <si>
     <t>idUnite</t>
@@ -213,7 +213,7 @@
     <t>dateStatutUnite</t>
   </si>
   <si>
-    <t>Permet de définir la date d'entrée renseignée par l'utilisateur pour les statuts</t>
+    <t>La spécification fonctionnelle des échanges (https://esante.gouv.fr/volet-si-esms-viatrajectoire-module-ph) donne la signification de cette date par rapport au statut de l’unité</t>
   </si>
   <si>
     <t>motifUnite</t>

--- a/339-flux-4---préciser-la-signification-métier-de-la-date-de-statut/ig/CodeSystem-input-task-sdo-codesystem.xlsx
+++ b/339-flux-4---préciser-la-signification-métier-de-la-date-de-statut/ig/CodeSystem-input-task-sdo-codesystem.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-06T13:06:28+00:00</t>
+    <t>2025-10-06T13:32:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/339-flux-4---préciser-la-signification-métier-de-la-date-de-statut/ig/CodeSystem-input-task-sdo-codesystem.xlsx
+++ b/339-flux-4---préciser-la-signification-métier-de-la-date-de-statut/ig/CodeSystem-input-task-sdo-codesystem.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-06T13:32:44+00:00</t>
+    <t>2025-10-09T08:13:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -165,7 +165,7 @@
     <t>dateStatutESMS</t>
   </si>
   <si>
-    <t>Il s'agit de la date réelle d'entrée ou de sortie de l'établissement</t>
+    <t>La spécification fonctionnelle des échanges (https://esante.gouv.fr/volet-si-esms-viatrajectoire-module-ph) donne la signification de cette date par rapport au statut ESMS</t>
   </si>
   <si>
     <t>idUnite</t>
